--- a/Stundenzettel.xlsx
+++ b/Stundenzettel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E450FF2-3699-4B13-944F-89C68BAF3178}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581F74D-C149-40B4-827B-760CEA726840}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B60683AF-92AD-43E5-BF55-22472870B7ED}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Ausarbeitung des Konzepts</t>
   </si>
   <si>
-    <t>Einarbeitung in Git</t>
-  </si>
-  <si>
     <t>Endpräsentation</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Bug-Fixes</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Git/ Zusammensetztung</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
         <v>43209</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -720,7 +720,7 @@
         <v>43212</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -738,7 +738,7 @@
         <v>43215</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -762,7 +762,7 @@
         <v>43218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>43223</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -810,7 +810,7 @@
         <v>43225</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -834,7 +834,7 @@
         <v>43228</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -894,7 +894,7 @@
         <v>43233</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -927,7 +927,7 @@
         <v>43239</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>43244</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>43246</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>43247</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>43254</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1032,7 +1032,7 @@
         <v>43254</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>43257</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="3"/>
     </row>

--- a/Stundenzettel.xlsx
+++ b/Stundenzettel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581F74D-C149-40B4-827B-760CEA726840}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E9F55-D5FC-4F1F-9592-8404E25767C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B60683AF-92AD-43E5-BF55-22472870B7ED}"/>
   </bookViews>
@@ -592,14 +592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35F5CE0-45E3-4741-8D8E-A1B82C0F69BC}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
@@ -822,11 +822,11 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(D17:G17)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1123,11 +1123,11 @@
       </c>
       <c r="G36" s="1">
         <f>SUM(G8:G34)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" s="2">
         <f>SUM(D36:G36)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenzettel.xlsx
+++ b/Stundenzettel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E9F55-D5FC-4F1F-9592-8404E25767C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD07C03A-AE94-4C0B-B81E-24A727A2FAFC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B60683AF-92AD-43E5-BF55-22472870B7ED}"/>
   </bookViews>
